--- a/medicine/Mort/Cimetière_de_Boisaca/Cimetière_de_Boisaca.xlsx
+++ b/medicine/Mort/Cimetière_de_Boisaca/Cimetière_de_Boisaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Boisaca</t>
+          <t>Cimetière_de_Boisaca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière municipal de Boisaca est le principal cimetière de la ville de Saint-Jacques-de-Compostelle. Il abrite notamment la tombe de Ramón María del Valle-Inclán.
 Le cimetière est l'un des hauts lieux de la guerre d'Espagne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Boisaca</t>
+          <t>Cimetière_de_Boisaca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Guerre d'Espagne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est le lieu de plusieurs exécutions pendant les premiers mois de la Guerre d'Espagne.
-Plusieurs plaques sont apposées en mémoire des victimes de la guerre d'Espagne par les mairies de Saint-Jacques-de-Compostelle et d'Ordes[1].
+Plusieurs plaques sont apposées en mémoire des victimes de la guerre d'Espagne par les mairies de Saint-Jacques-de-Compostelle et d'Ordes.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Boisaca</t>
+          <t>Cimetière_de_Boisaca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnalités inhumées dans le cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Simeón García de la Riva (1823–1889), chef d'entreprise et banquier;
 Aurelio Aguirre (1833–1858), poète;
@@ -562,7 +578,7 @@
 Isaac Díaz Pardo (1920–2012), intellectuel, artiste et chef d'entreprise.
 Francisco Porto Mella (1925-2012), avocat et universitaire espagnol, consul honoraire de France;
 Roberto Vidal Bolaño (1950–2002), auteur, directeur et acteur de théâtre;
-Rosario Porto Ortega (1969-2020), avocate et diplomate, impliquée dans l'affaire Asunta Basterra en 2013[2].</t>
+Rosario Porto Ortega (1969-2020), avocate et diplomate, impliquée dans l'affaire Asunta Basterra en 2013.</t>
         </is>
       </c>
     </row>
